--- a/F75CP6_0404/9.gyak.xlsx
+++ b/F75CP6_0404/9.gyak.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.IIT.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97756FC0-B7AF-4F3F-A61C-D1AAEE3B815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>RR:4ms</t>
   </si>
@@ -71,21 +80,12 @@
     <t>Sorrend:</t>
   </si>
   <si>
-    <t>0, 7</t>
-  </si>
-  <si>
     <t>7, 18</t>
   </si>
   <si>
     <t>6, 2</t>
   </si>
   <si>
-    <t>2, 7</t>
-  </si>
-  <si>
-    <t>5, 11</t>
-  </si>
-  <si>
     <t>P1, P2, P3,P1, P4, P3, P1</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>0, 4, 15</t>
   </si>
   <si>
-    <t xml:space="preserve">4 , 15, </t>
-  </si>
-  <si>
     <t>SJF</t>
   </si>
   <si>
@@ -140,27 +137,69 @@
     <t xml:space="preserve">Sorrend: </t>
   </si>
   <si>
-    <t>P2,P1,P3,P4</t>
-  </si>
-  <si>
-    <t>P1,P3,P4</t>
-  </si>
-  <si>
-    <t>P3, P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2,P3 | </t>
+    <t>4 , 15, 36</t>
+  </si>
+  <si>
+    <t>0, 7, 5</t>
+  </si>
+  <si>
+    <t>2, 11</t>
+  </si>
+  <si>
+    <t>5, 7</t>
+  </si>
+  <si>
+    <t>körülford.: bef-érk.</t>
+  </si>
+  <si>
+    <t>4, 11, 20</t>
+  </si>
+  <si>
+    <t>9, 9</t>
+  </si>
+  <si>
+    <t>P3,P1,P4</t>
+  </si>
+  <si>
+    <t>P1, P4,P3,P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2,P3 </t>
+  </si>
+  <si>
+    <t>P3, P1</t>
+  </si>
+  <si>
+    <t>ezt összeadta és kivontam az össz érzkezést/4</t>
+  </si>
+  <si>
+    <t>P1,P2,P4,P3</t>
+  </si>
+  <si>
+    <t>összeadtam a körülforulásokat és elosztottam a 4 processszel</t>
+  </si>
+  <si>
+    <t>(7+5+4+5+7+10)/4</t>
+  </si>
+  <si>
+    <t>((0+4+7+15)-(2+5))/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,11 +294,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,16 +330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,16 +348,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,54 +654,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -650,12 +723,12 @@
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -677,12 +750,12 @@
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -708,23 +781,23 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>33</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>36</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>28</v>
       </c>
       <c r="G5" s="2">
@@ -733,96 +806,98 @@
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <f>B7+B9+0.3</f>
         <v>47.8</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <f>((24+27+33+36)-(2+5))/4</f>
         <v>28.25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <f>SUM(G2:G5)/4</f>
         <v>28.25</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <f>SUM(F2:F5)/4</f>
         <v>19.25</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="2">
         <f>((24+27+33)-(2+5))/4</f>
         <v>19.25</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -831,7 +906,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -840,35 +915,35 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2">
@@ -878,24 +953,24 @@
         <v>24</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
@@ -905,24 +980,24 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2">
@@ -932,156 +1007,160 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="8">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8">
-        <v>38</v>
-      </c>
-      <c r="F18" s="8">
-        <v>28</v>
+      <c r="D18" s="4">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>22</v>
       </c>
       <c r="G18" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="7">
-        <f>((27+3+33+38)-(2+5))/4</f>
-        <v>23.5</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="2">
+        <f>((24+27+36+30)-(2+5))/4</f>
+        <v>27.5</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f>SUM(F15:F18)/4</f>
-        <v>14</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+        <v>18.5</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="7">
-        <f>((3+27+33)-(2+5))/4</f>
-        <v>14</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
+      <c r="B22" s="2">
+        <f>((24+27+30)-(2+5))/4</f>
+        <v>18.5</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="2">
@@ -1099,110 +1178,125 @@
       <c r="F31" s="2">
         <v>4</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <v>7</v>
+      </c>
       <c r="H31" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>15</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>18</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>10</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="G33" s="4">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="18">
+        <v>18.25</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="13">
-        <f>(7+4+5+11+10)/6</f>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>4.75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
